--- a/bioSample/bioSample_J.PLAGGENBERG_08.16.19.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_08.16.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>
@@ -86,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -116,10 +116,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,12 +171,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -181,7 +192,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -205,7 +216,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -213,14 +224,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -258,10 +269,10 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1"/>
@@ -272,16 +283,16 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -292,10 +303,10 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1"/>
@@ -306,16 +317,16 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -326,10 +337,10 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1"/>
@@ -340,16 +351,16 @@
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -360,10 +371,10 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1"/>
@@ -374,16 +385,16 @@
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -394,10 +405,10 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1"/>
@@ -408,16 +419,16 @@
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2" t="n">
+      <c r="K6" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -428,10 +439,10 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1"/>
@@ -442,16 +453,16 @@
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L7" s="2" t="n">
+      <c r="K7" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -462,10 +473,10 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1"/>
@@ -476,16 +487,16 @@
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="3" t="n">
         <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2" t="n">
+      <c r="K8" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L8" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -496,10 +507,10 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1"/>
@@ -510,16 +521,16 @@
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="3" t="n">
         <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L9" s="2" t="n">
+      <c r="K9" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L9" s="3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,10 +541,10 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1"/>
@@ -544,16 +555,16 @@
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="I10" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -564,10 +575,10 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1"/>
@@ -578,16 +589,16 @@
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -598,10 +609,10 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1"/>
@@ -612,16 +623,16 @@
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="3" t="n">
         <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -632,10 +643,10 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1"/>
@@ -646,16 +657,16 @@
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="3" t="n">
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="K13" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -666,10 +677,10 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1"/>
@@ -680,16 +691,16 @@
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L14" s="2" t="n">
+      <c r="K14" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L14" s="3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -700,10 +711,10 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1"/>
@@ -714,16 +725,16 @@
       <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L15" s="2" t="n">
+      <c r="K15" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -734,10 +745,10 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1"/>
@@ -748,16 +759,16 @@
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="3" t="n">
         <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L16" s="2" t="n">
+      <c r="K16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" s="3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -768,10 +779,10 @@
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1"/>
@@ -782,16 +793,16 @@
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="3" t="n">
         <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L17" s="2" t="n">
+      <c r="K17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L17" s="3" t="n">
         <v>4</v>
       </c>
     </row>
